--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\projects\echarts\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8DA8E-7BCD-4A40-9821-7B98057DA8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB3904-589F-4D0F-A05A-0ECA1ADE673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$138</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="45">
   <si>
     <t>Бренд</t>
   </si>
@@ -155,15 +155,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Издержки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="165" formatCode="#.0#############E+###"/>
+    <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -194,10 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -512,9 +517,10 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +533,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,8 +550,11 @@
       <c r="D2" s="2">
         <v>5900.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3">
+        <v>39.436992453148996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,8 +567,11 @@
       <c r="D3" s="2">
         <v>31189.1600000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>18.942052510851585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,8 +584,11 @@
       <c r="D4" s="2">
         <v>16646.169999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3">
+        <v>794.76804241027946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -583,8 +601,11 @@
       <c r="D5" s="2">
         <v>5811.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3">
+        <v>19.532935010497109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,8 +618,11 @@
       <c r="D6" s="2">
         <v>6004.78</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3">
+        <v>12.08821308484365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -611,8 +635,11 @@
       <c r="D7" s="2">
         <v>6400.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3">
+        <v>1.1753683496114797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -625,8 +652,11 @@
       <c r="D8" s="2">
         <v>2688.29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3">
+        <v>0.36430588547478931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -639,8 +669,11 @@
       <c r="D9" s="2">
         <v>22646.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="3">
+        <v>5.4432120707315512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,8 +686,11 @@
       <c r="D10" s="2">
         <v>21988.97</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3">
+        <v>45.027123587191099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,8 +703,11 @@
       <c r="D11" s="2">
         <v>5850.23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="3">
+        <v>19.202442131503137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,8 +720,11 @@
       <c r="D12" s="2">
         <v>4770.07</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="3">
+        <v>19.844605911502285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,8 +737,11 @@
       <c r="D13" s="2">
         <v>13627.74</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3">
+        <v>14.631587823867628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,8 +754,11 @@
       <c r="D14" s="2">
         <v>8166.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="3">
+        <v>1.0901115058991893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -723,8 +771,11 @@
       <c r="D15" s="2">
         <v>283.02999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3">
+        <v>24.475743235136633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +788,11 @@
       <c r="D16" s="2">
         <v>2045.61</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3">
+        <v>9.4956378555368162E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,8 +805,11 @@
       <c r="D17" s="2">
         <v>13823.81</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3">
+        <v>126.06303272520387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +822,11 @@
       <c r="D18" s="2">
         <v>6847.1000000000104</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3">
+        <v>88.108690349953847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -779,8 +839,11 @@
       <c r="D19" s="2">
         <v>3752.5999999999899</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3">
+        <v>0.75502569379282969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -793,8 +856,11 @@
       <c r="D20" s="2">
         <v>17193.050000000101</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3">
+        <v>297.93420801688166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -807,8 +873,11 @@
       <c r="D21" s="2">
         <v>16703.820000000102</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="3">
+        <v>469.61775519091111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -821,8 +890,11 @@
       <c r="D22" s="2">
         <v>2541.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3">
+        <v>161.23514193156629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -835,8 +907,11 @@
       <c r="D23" s="2">
         <v>1056.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="3">
+        <v>0.27440272774895602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -849,8 +924,11 @@
       <c r="D24" s="2">
         <v>7466.3599999999897</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="3">
+        <v>856.90589633905847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -863,8 +941,11 @@
       <c r="D25" s="2">
         <v>3779.76</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="3">
+        <v>54.753859198596615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -877,8 +958,11 @@
       <c r="D26" s="2">
         <v>9112.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="3">
+        <v>13.576718546246981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -891,8 +975,11 @@
       <c r="D27" s="2">
         <v>16020.57</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="3">
+        <v>5.3302826590834611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -905,8 +992,11 @@
       <c r="D28" s="2">
         <v>6485.2199999999903</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="3">
+        <v>2.9377431518955155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -919,8 +1009,11 @@
       <c r="D29" s="2">
         <v>2470.63</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="3">
+        <v>111.49206696572216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -933,8 +1026,11 @@
       <c r="D30" s="2">
         <v>17453.55</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="3">
+        <v>1372.8779425819803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -947,8 +1043,11 @@
       <c r="D31" s="2">
         <v>5971.08</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="3">
+        <v>49.631181156959045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -961,8 +1060,11 @@
       <c r="D32" s="2">
         <v>1796.58</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="3">
+        <v>1.488115197453882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -975,8 +1077,11 @@
       <c r="D33" s="2">
         <v>724</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="3">
+        <v>12.151191793845308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -989,8 +1094,11 @@
       <c r="D34" s="2">
         <v>26884.779999999901</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="3">
+        <v>213.09189065877175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1003,8 +1111,11 @@
       <c r="D35" s="2">
         <v>2724.86</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="3">
+        <v>94.952589446772066</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1017,8 +1128,11 @@
       <c r="D36" s="2">
         <v>36769.47</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="3">
+        <v>487.34598498076838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1031,8 +1145,11 @@
       <c r="D37" s="2">
         <v>360123.05999999901</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="3">
+        <v>3.654666551339512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1045,8 +1162,11 @@
       <c r="D38" s="2">
         <v>118346.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="3">
+        <v>78.895373039574238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1059,8 +1179,11 @@
       <c r="D39" s="2">
         <v>24808.57</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="3">
+        <v>35.02138831254377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1073,8 +1196,11 @@
       <c r="D40" s="2">
         <v>7782.7700000000204</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="3">
+        <v>0.35990138351422596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1087,8 +1213,11 @@
       <c r="D41" s="2">
         <v>77151.109999999797</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="3">
+        <v>0.88206338166135623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1101,8 +1230,11 @@
       <c r="D42" s="2">
         <v>51132.530000000101</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="3">
+        <v>881.57786947467389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1115,8 +1247,11 @@
       <c r="D43" s="2">
         <v>42713.249999999898</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="3">
+        <v>17.884180085103637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1129,8 +1264,11 @@
       <c r="D44" s="2">
         <v>145046.85999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="3">
+        <v>1633.8845078070194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1143,8 +1281,11 @@
       <c r="D45" s="2">
         <v>28026.94</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="3">
+        <v>62.760157247511863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1157,8 +1298,11 @@
       <c r="D46" s="2">
         <v>18263.759999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="3">
+        <v>22.83816613326637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -1171,8 +1315,11 @@
       <c r="D47" s="2">
         <v>47121.74</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="3">
+        <v>21.659473808079174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1185,8 +1332,11 @@
       <c r="D48" s="2">
         <v>60659.07</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="3">
+        <v>237.83451130286761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1199,8 +1349,11 @@
       <c r="D49" s="2">
         <v>8738.3399999999892</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="3">
+        <v>0.20603268301393615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1213,8 +1366,11 @@
       <c r="D50" s="2">
         <v>2228.5300000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="3">
+        <v>0.18697142012374984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -1227,8 +1383,11 @@
       <c r="D51" s="2">
         <v>88706.670000000202</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="3">
+        <v>539.74708327132066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
@@ -1241,8 +1400,11 @@
       <c r="D52" s="2">
         <v>6254.3000000000202</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="3">
+        <v>61.959550328025387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -1255,8 +1417,11 @@
       <c r="D53" s="2">
         <v>1954.08</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="3">
+        <v>7.7942000770220323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
@@ -1269,8 +1434,11 @@
       <c r="D54" s="2">
         <v>5881.82</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="3">
+        <v>1.408157529729549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
@@ -1283,8 +1451,11 @@
       <c r="D55" s="2">
         <v>2413.67</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="3">
+        <v>7.1632870790473495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -1297,8 +1468,11 @@
       <c r="D56" s="2">
         <v>2196.21</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="3">
+        <v>0.99062439797923207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -1311,8 +1485,11 @@
       <c r="D57" s="2">
         <v>1121.52</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="3">
+        <v>32.632437066047622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
@@ -1325,8 +1502,11 @@
       <c r="D58" s="2">
         <v>2301.85</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="3">
+        <v>1.0649158907671397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -1339,8 +1519,11 @@
       <c r="D59" s="2">
         <v>1029.08</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="3">
+        <v>0.40891297781121821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
@@ -1353,8 +1536,11 @@
       <c r="D60" s="2">
         <v>6150.89</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="3">
+        <v>109.37206354140905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -1367,8 +1553,11 @@
       <c r="D61" s="2">
         <v>2057.8299999999899</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="3">
+        <v>51.314647890271161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -1381,8 +1570,11 @@
       <c r="D62" s="2">
         <v>3495.69</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="3">
+        <v>7.2495790155597364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
@@ -1395,8 +1587,11 @@
       <c r="D63" s="2">
         <v>66.56</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="3">
+        <v>1.1214100407064076E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -1409,8 +1604,11 @@
       <c r="D64" s="2">
         <v>5172.2999999999902</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="3">
+        <v>10.109236020690192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
@@ -1423,8 +1621,11 @@
       <c r="D65" s="2">
         <v>1326.81</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="3">
+        <v>6.9345507501946368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
@@ -1437,8 +1638,11 @@
       <c r="D66" s="2">
         <v>478.07</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="3">
+        <v>0.66177327241318817</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>38</v>
       </c>
@@ -1451,8 +1655,11 @@
       <c r="D67" s="2">
         <v>416.96</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="3">
+        <v>6.7944225354517315E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>38</v>
       </c>
@@ -1465,8 +1672,11 @@
       <c r="D68" s="2">
         <v>3017.6099999999901</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="3">
+        <v>22.095338015528213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
@@ -1479,8 +1689,11 @@
       <c r="D69" s="2">
         <v>403.32999999999902</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="3">
+        <v>1.1880717204764872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -1493,8 +1706,11 @@
       <c r="D70" s="2">
         <v>8025.1200000000099</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="3">
+        <v>161.71616084868319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
@@ -1507,8 +1723,11 @@
       <c r="D71" s="2">
         <v>46738.870000000097</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="3">
+        <v>420.56943030263807</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
@@ -1521,8 +1740,11 @@
       <c r="D72" s="2">
         <v>39374.089999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="3">
+        <v>0.59664535838762156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>39</v>
       </c>
@@ -1535,8 +1757,11 @@
       <c r="D73" s="2">
         <v>16946.62</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="3">
+        <v>311.19340207159047</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
@@ -1549,8 +1774,11 @@
       <c r="D74" s="2">
         <v>4201.71</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="3">
+        <v>37.907025271538998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -1563,8 +1791,11 @@
       <c r="D75" s="2">
         <v>33014.629999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="3">
+        <v>4.4473632131626033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
@@ -1577,8 +1808,11 @@
       <c r="D76" s="2">
         <v>6157.92</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="3">
+        <v>6.0794013202294988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
@@ -1591,8 +1825,11 @@
       <c r="D77" s="2">
         <v>47314.239999999903</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="3">
+        <v>0.27829000926891478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -1605,8 +1842,11 @@
       <c r="D78" s="2">
         <v>24986.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="3">
+        <v>1012.6745562354331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>39</v>
       </c>
@@ -1619,8 +1859,11 @@
       <c r="D79" s="2">
         <v>9751.5899999999692</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="3">
+        <v>0.35730755412137921</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
@@ -1633,8 +1876,11 @@
       <c r="D80" s="2">
         <v>12105.84</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="3">
+        <v>8.8445809157874571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -1647,8 +1893,11 @@
       <c r="D81" s="2">
         <v>20516.66</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="3">
+        <v>2.9087895808639805</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>39</v>
       </c>
@@ -1661,8 +1910,11 @@
       <c r="D82" s="2">
         <v>19689.34</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="3">
+        <v>7.1040427174504375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>39</v>
       </c>
@@ -1675,8 +1927,11 @@
       <c r="D83" s="2">
         <v>2814.24</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="3">
+        <v>17.246215235058767</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -1689,8 +1944,11 @@
       <c r="D84" s="2">
         <v>10420.81</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="3">
+        <v>0.33193440738501157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>39</v>
       </c>
@@ -1703,8 +1961,11 @@
       <c r="D85" s="2">
         <v>30634.11</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="3">
+        <v>3.3212965191433308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
@@ -1717,8 +1978,11 @@
       <c r="D86" s="2">
         <v>6366.36</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="3">
+        <v>4.2884821792597743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,8 +1995,11 @@
       <c r="D87" s="2">
         <v>5255.6799999999903</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="3">
+        <v>131.10411169864418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -1745,8 +2012,11 @@
       <c r="D88" s="2">
         <v>33728.469999999899</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="3">
+        <v>313.73408394145764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -1759,8 +2029,11 @@
       <c r="D89" s="2">
         <v>20902.4399999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="3">
+        <v>4917.0270806488797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -1773,8 +2046,11 @@
       <c r="D90" s="2">
         <v>10220.02</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="3">
+        <v>3.95215663249791</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -1787,8 +2063,11 @@
       <c r="D91" s="2">
         <v>6766.4300000000103</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="3">
+        <v>2.278696554828072</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -1801,8 +2080,11 @@
       <c r="D92" s="2">
         <v>11257.7300000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="3">
+        <v>120.02235005095004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -1815,8 +2097,11 @@
       <c r="D93" s="2">
         <v>3764.15</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="3">
+        <v>10.377454414756764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -1829,8 +2114,11 @@
       <c r="D94" s="2">
         <v>17107.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="3">
+        <v>509.16266598282874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,8 +2131,11 @@
       <c r="D95" s="2">
         <v>20221.740000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="3">
+        <v>7.2991432387809674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -1857,8 +2148,11 @@
       <c r="D96" s="2">
         <v>7778.4699999999903</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="3">
+        <v>89.420452135836044</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -1871,8 +2165,11 @@
       <c r="D97" s="2">
         <v>1406.56</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="3">
+        <v>12.242604092063115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
@@ -1885,8 +2182,11 @@
       <c r="D98" s="2">
         <v>10914.79</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="3">
+        <v>2.8634836875668874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -1899,8 +2199,11 @@
       <c r="D99" s="2">
         <v>5954.8299999999899</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="3">
+        <v>13.397787062672542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -1913,8 +2216,11 @@
       <c r="D100" s="2">
         <v>2887.1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="3">
+        <v>36.315442777329046</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,8 +2233,11 @@
       <c r="D101" s="2">
         <v>1688.56</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" s="3">
+        <v>70.077274003085762</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -1941,8 +2250,11 @@
       <c r="D102" s="2">
         <v>23176.9</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="3">
+        <v>8.2664302900426461E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -1955,8 +2267,11 @@
       <c r="D103" s="2">
         <v>5371.65</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="3">
+        <v>54.570602344645444</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>41</v>
       </c>
@@ -1969,8 +2284,11 @@
       <c r="D104" s="2">
         <v>5356.2800000000097</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="3">
+        <v>0.53920226726873521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2301,11 @@
       <c r="D105" s="2">
         <v>19520.68</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="3">
+        <v>1.2128013356525658</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -1997,8 +2318,11 @@
       <c r="D106" s="2">
         <v>8055.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" s="3">
+        <v>125.8970316447835</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -2011,8 +2335,11 @@
       <c r="D107" s="2">
         <v>6686.58</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" s="3">
+        <v>8.6251663194150634</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -2025,8 +2352,11 @@
       <c r="D108" s="2">
         <v>1503.09</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" s="3">
+        <v>32.103884750494501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>41</v>
       </c>
@@ -2039,8 +2369,11 @@
       <c r="D109" s="2">
         <v>7268.00000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" s="3">
+        <v>3.470637010127013</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
@@ -2053,8 +2386,11 @@
       <c r="D110" s="2">
         <v>826.54</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" s="3">
+        <v>1.1967699358476411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>41</v>
       </c>
@@ -2067,8 +2403,11 @@
       <c r="D111" s="2">
         <v>3962.44</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" s="3">
+        <v>3.3718435438764889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -2081,8 +2420,11 @@
       <c r="D112" s="2">
         <v>22558.240000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" s="3">
+        <v>1.039146740385064E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2437,11 @@
       <c r="D113" s="2">
         <v>4516.63</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="3">
+        <v>25.607622585026888</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
@@ -2109,8 +2454,11 @@
       <c r="D114" s="2">
         <v>179.14</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="3">
+        <v>0.73801860437061539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>41</v>
       </c>
@@ -2123,8 +2471,11 @@
       <c r="D115" s="2">
         <v>12828.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="3">
+        <v>409.58394489954821</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -2137,8 +2488,11 @@
       <c r="D116" s="2">
         <v>4230.13</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="3">
+        <v>10.45147575180839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -2151,8 +2505,11 @@
       <c r="D117" s="2">
         <v>2138.9499999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="3">
+        <v>1.3541579990039994E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>41</v>
       </c>
@@ -2165,8 +2522,11 @@
       <c r="D118" s="2">
         <v>15399.59</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" s="3">
+        <v>680.12212915077123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>41</v>
       </c>
@@ -2179,8 +2539,11 @@
       <c r="D119" s="2">
         <v>2194.0500000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" s="3">
+        <v>5.0794274011056055</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>42</v>
       </c>
@@ -2193,8 +2556,11 @@
       <c r="D120" s="2">
         <v>15161.62</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" s="3">
+        <v>4481.5625786763812</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,8 +2573,11 @@
       <c r="D121" s="2">
         <v>88608.039999999906</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" s="3">
+        <v>971.97242085526102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>42</v>
       </c>
@@ -2221,8 +2590,11 @@
       <c r="D122" s="2">
         <v>31637.470000000099</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" s="3">
+        <v>95.73703008337624</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,8 +2607,11 @@
       <c r="D123" s="2">
         <v>8882.4999999999909</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" s="3">
+        <v>68.804833140358909</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2624,11 @@
       <c r="D124" s="2">
         <v>12771.53</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" s="3">
+        <v>0.7071579983453995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>42</v>
       </c>
@@ -2263,8 +2641,11 @@
       <c r="D125" s="2">
         <v>25259.7600000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="3">
+        <v>2.411637026534704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>42</v>
       </c>
@@ -2277,8 +2658,11 @@
       <c r="D126" s="2">
         <v>5376.70999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" s="3">
+        <v>21.471770302947132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>42</v>
       </c>
@@ -2291,8 +2675,11 @@
       <c r="D127" s="2">
         <v>21722.55</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" s="3">
+        <v>442.89146725247838</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>42</v>
       </c>
@@ -2305,8 +2692,11 @@
       <c r="D128" s="2">
         <v>33455.89</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" s="3">
+        <v>240.74501444876014</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>42</v>
       </c>
@@ -2319,8 +2709,11 @@
       <c r="D129" s="2">
         <v>24384.200000000099</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" s="3">
+        <v>159.17545248977532</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,8 +2726,11 @@
       <c r="D130" s="2">
         <v>1420.59</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" s="3">
+        <v>0.3544012850997596</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -2347,8 +2743,11 @@
       <c r="D131" s="2">
         <v>31826.049999999901</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" s="3">
+        <v>118.24504698291379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2760,11 @@
       <c r="D132" s="2">
         <v>15865.91</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" s="3">
+        <v>561.95104509850944</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>42</v>
       </c>
@@ -2375,8 +2777,11 @@
       <c r="D133" s="2">
         <v>2797.5699999999902</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" s="3">
+        <v>3.9735473786081608</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>42</v>
       </c>
@@ -2389,8 +2794,11 @@
       <c r="D134" s="2">
         <v>5154.46000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="3">
+        <v>471.95189794773711</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>42</v>
       </c>
@@ -2403,8 +2811,11 @@
       <c r="D135" s="2">
         <v>50552.950000000099</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="3">
+        <v>600.99583480765841</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>42</v>
       </c>
@@ -2417,8 +2828,11 @@
       <c r="D136" s="2">
         <v>6570.3499999999704</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="3">
+        <v>112.40450016371267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>43</v>
       </c>
@@ -2431,8 +2845,11 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
         <v>43</v>
       </c>
@@ -2443,6 +2860,9 @@
         <v>19</v>
       </c>
       <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
         <v>0</v>
       </c>
     </row>

--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\projects\echarts\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\test3333\echarts\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAB3904-589F-4D0F-A05A-0ECA1ADE673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231427B-F379-433B-8E3D-6F05E8FC8CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="52">
   <si>
     <t>Бренд</t>
   </si>
@@ -158,6 +158,27 @@
   </si>
   <si>
     <t>Издержки</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>Первый поставщик</t>
+  </si>
+  <si>
+    <t>Второй поставщик</t>
+  </si>
+  <si>
+    <t>Третий поставщик</t>
+  </si>
+  <si>
+    <t>Четвертый поставщик</t>
+  </si>
+  <si>
+    <t>Произведено</t>
+  </si>
+  <si>
+    <t>Россия</t>
   </si>
 </sst>
 </file>
@@ -167,7 +188,7 @@
   <numFmts count="3">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -202,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -517,10 +538,12 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,16 +551,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,16 +574,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>5900.13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>39.436992453148996</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,16 +597,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>31189.1600000002</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>18.942052510851585</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -579,16 +620,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>16646.169999999998</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>794.76804241027946</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,16 +643,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>5811.58</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>19.532935010497109</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -613,16 +666,22 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>6004.78</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>12.08821308484365</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,16 +689,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>6400.67</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>1.1753683496114797</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,16 +712,22 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>2688.29</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>0.36430588547478931</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -664,16 +735,22 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>22646.66</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5.4432120707315512</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,16 +758,22 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>21988.97</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>45.027123587191099</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,16 +781,22 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>5850.23</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>19.202442131503137</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -715,16 +804,22 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>4770.07</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>19.844605911502285</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,16 +827,22 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>13627.74</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>14.631587823867628</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,16 +850,22 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>8166.77</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1.0901115058991893</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,16 +873,22 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>283.02999999999997</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>24.475743235136633</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,16 +896,22 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>2045.61</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
         <v>9.4956378555368162E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,16 +919,22 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2">
+      <c r="F17" s="2">
         <v>13823.81</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>126.06303272520387</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,16 +942,22 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2">
+      <c r="F18" s="2">
         <v>6847.1000000000104</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>88.108690349953847</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -834,16 +965,22 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="F19" s="2">
         <v>3752.5999999999899</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>0.75502569379282969</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -851,16 +988,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2">
+      <c r="F20" s="2">
         <v>17193.050000000101</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>297.93420801688166</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -868,16 +1011,22 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>16703.820000000102</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>469.61775519091111</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -885,16 +1034,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2">
+      <c r="F22" s="2">
         <v>2541.25</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>161.23514193156629</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -902,16 +1057,22 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2">
+      <c r="F23" s="2">
         <v>1056.03</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>0.27440272774895602</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -919,16 +1080,22 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2">
+      <c r="F24" s="2">
         <v>7466.3599999999897</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>856.90589633905847</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -936,16 +1103,22 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="2">
+      <c r="F25" s="2">
         <v>3779.76</v>
       </c>
-      <c r="E25" s="3">
+      <c r="G25" s="3">
         <v>54.753859198596615</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -953,16 +1126,22 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>9112.08</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>13.576718546246981</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -970,16 +1149,22 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="2">
+      <c r="F27" s="2">
         <v>16020.57</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5.3302826590834611</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -987,16 +1172,22 @@
         <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2">
+      <c r="F28" s="2">
         <v>6485.2199999999903</v>
       </c>
-      <c r="E28" s="3">
+      <c r="G28" s="3">
         <v>2.9377431518955155</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1004,16 +1195,22 @@
         <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>2470.63</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>111.49206696572216</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1021,16 +1218,22 @@
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2">
+      <c r="F30" s="2">
         <v>17453.55</v>
       </c>
-      <c r="E30" s="3">
+      <c r="G30" s="3">
         <v>1372.8779425819803</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1038,16 +1241,22 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2">
+      <c r="F31" s="2">
         <v>5971.08</v>
       </c>
-      <c r="E31" s="3">
+      <c r="G31" s="3">
         <v>49.631181156959045</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1055,16 +1264,22 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2">
+      <c r="F32" s="2">
         <v>1796.58</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1.488115197453882</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1072,16 +1287,22 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="2">
+      <c r="F33" s="2">
         <v>724</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12.151191793845308</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1089,16 +1310,22 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="2">
+      <c r="F34" s="2">
         <v>26884.779999999901</v>
       </c>
-      <c r="E34" s="3">
+      <c r="G34" s="3">
         <v>213.09189065877175</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1106,16 +1333,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="2">
+      <c r="F35" s="2">
         <v>2724.86</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>94.952589446772066</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1123,16 +1356,22 @@
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2">
+      <c r="F36" s="2">
         <v>36769.47</v>
       </c>
-      <c r="E36" s="3">
+      <c r="G36" s="3">
         <v>487.34598498076838</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1140,16 +1379,22 @@
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2">
+      <c r="F37" s="2">
         <v>360123.05999999901</v>
       </c>
-      <c r="E37" s="3">
+      <c r="G37" s="3">
         <v>3.654666551339512</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1157,16 +1402,22 @@
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2">
+      <c r="F38" s="2">
         <v>118346.03</v>
       </c>
-      <c r="E38" s="3">
+      <c r="G38" s="3">
         <v>78.895373039574238</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1174,16 +1425,22 @@
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="2">
+      <c r="F39" s="2">
         <v>24808.57</v>
       </c>
-      <c r="E39" s="3">
+      <c r="G39" s="3">
         <v>35.02138831254377</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1191,16 +1448,22 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="2">
+      <c r="F40" s="2">
         <v>7782.7700000000204</v>
       </c>
-      <c r="E40" s="3">
+      <c r="G40" s="3">
         <v>0.35990138351422596</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1208,16 +1471,22 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="2">
+      <c r="F41" s="2">
         <v>77151.109999999797</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>0.88206338166135623</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1225,16 +1494,22 @@
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="2">
+      <c r="F42" s="2">
         <v>51132.530000000101</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>881.57786947467389</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1242,16 +1517,22 @@
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2">
+      <c r="F43" s="2">
         <v>42713.249999999898</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17.884180085103637</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1259,16 +1540,22 @@
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="2">
+      <c r="F44" s="2">
         <v>145046.85999999999</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1633.8845078070194</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1276,16 +1563,22 @@
         <v>20</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="2">
+      <c r="F45" s="2">
         <v>28026.94</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>62.760157247511863</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1293,16 +1586,22 @@
         <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="2">
+      <c r="F46" s="2">
         <v>18263.759999999998</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>22.83816613326637</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -1310,16 +1609,22 @@
         <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="2">
+      <c r="F47" s="2">
         <v>47121.74</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>21.659473808079174</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1327,16 +1632,22 @@
         <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="2">
+      <c r="F48" s="2">
         <v>60659.07</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>237.83451130286761</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1344,16 +1655,22 @@
         <v>28</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="2">
+      <c r="F49" s="2">
         <v>8738.3399999999892</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>0.20603268301393615</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1361,16 +1678,22 @@
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="2">
+      <c r="F50" s="2">
         <v>2228.5300000000002</v>
       </c>
-      <c r="E50" s="3">
+      <c r="G50" s="3">
         <v>0.18697142012374984</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -1378,16 +1701,22 @@
         <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="2">
+      <c r="F51" s="2">
         <v>88706.670000000202</v>
       </c>
-      <c r="E51" s="3">
+      <c r="G51" s="3">
         <v>539.74708327132066</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
@@ -1395,16 +1724,22 @@
         <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="2">
+      <c r="F52" s="2">
         <v>6254.3000000000202</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>61.959550328025387</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -1412,16 +1747,22 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="2">
+      <c r="F53" s="2">
         <v>1954.08</v>
       </c>
-      <c r="E53" s="3">
+      <c r="G53" s="3">
         <v>7.7942000770220323</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
@@ -1429,16 +1770,22 @@
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="F54" s="2">
         <v>5881.82</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1.408157529729549</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
@@ -1446,16 +1793,22 @@
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="2">
+      <c r="F55" s="2">
         <v>2413.67</v>
       </c>
-      <c r="E55" s="3">
+      <c r="G55" s="3">
         <v>7.1632870790473495</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -1463,16 +1816,22 @@
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="2">
+      <c r="F56" s="2">
         <v>2196.21</v>
       </c>
-      <c r="E56" s="3">
+      <c r="G56" s="3">
         <v>0.99062439797923207</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -1480,16 +1839,22 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="2">
+      <c r="F57" s="2">
         <v>1121.52</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>32.632437066047622</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
@@ -1497,16 +1862,22 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="2">
+      <c r="F58" s="2">
         <v>2301.85</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1.0649158907671397</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -1514,16 +1885,22 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="2">
+      <c r="F59" s="2">
         <v>1029.08</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>0.40891297781121821</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
@@ -1531,16 +1908,22 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="2">
+      <c r="F60" s="2">
         <v>6150.89</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>109.37206354140905</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -1548,16 +1931,22 @@
         <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="2">
+      <c r="F61" s="2">
         <v>2057.8299999999899</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>51.314647890271161</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -1565,16 +1954,22 @@
         <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="2">
+      <c r="F62" s="2">
         <v>3495.69</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7.2495790155597364</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
@@ -1582,16 +1977,22 @@
         <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="2">
+      <c r="F63" s="2">
         <v>66.56</v>
       </c>
-      <c r="E63" s="3">
+      <c r="G63" s="3">
         <v>1.1214100407064076E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -1599,16 +2000,22 @@
         <v>24</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="2">
+      <c r="F64" s="2">
         <v>5172.2999999999902</v>
       </c>
-      <c r="E64" s="3">
+      <c r="G64" s="3">
         <v>10.109236020690192</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
@@ -1616,16 +2023,22 @@
         <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="2">
+      <c r="F65" s="2">
         <v>1326.81</v>
       </c>
-      <c r="E65" s="3">
+      <c r="G65" s="3">
         <v>6.9345507501946368</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
@@ -1633,16 +2046,22 @@
         <v>28</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="2">
+      <c r="F66" s="2">
         <v>478.07</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>0.66177327241318817</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>38</v>
       </c>
@@ -1650,16 +2069,22 @@
         <v>30</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="2">
+      <c r="F67" s="2">
         <v>416.96</v>
       </c>
-      <c r="E67" s="3">
+      <c r="G67" s="3">
         <v>6.7944225354517315E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>38</v>
       </c>
@@ -1667,16 +2092,22 @@
         <v>32</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="2">
+      <c r="F68" s="2">
         <v>3017.6099999999901</v>
       </c>
-      <c r="E68" s="3">
+      <c r="G68" s="3">
         <v>22.095338015528213</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
@@ -1684,16 +2115,22 @@
         <v>34</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="2">
+      <c r="F69" s="2">
         <v>403.32999999999902</v>
       </c>
-      <c r="E69" s="3">
+      <c r="G69" s="3">
         <v>1.1880717204764872</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -1701,16 +2138,22 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="2">
+      <c r="F70" s="2">
         <v>8025.1200000000099</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>161.71616084868319</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
@@ -1718,16 +2161,22 @@
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="2">
+      <c r="F71" s="2">
         <v>46738.870000000097</v>
       </c>
-      <c r="E71" s="3">
+      <c r="G71" s="3">
         <v>420.56943030263807</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
@@ -1735,16 +2184,22 @@
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2">
+      <c r="F72" s="2">
         <v>39374.089999999997</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>0.59664535838762156</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>39</v>
       </c>
@@ -1752,16 +2207,22 @@
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="2">
+      <c r="F73" s="2">
         <v>16946.62</v>
       </c>
-      <c r="E73" s="3">
+      <c r="G73" s="3">
         <v>311.19340207159047</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
@@ -1769,16 +2230,22 @@
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="2">
+      <c r="F74" s="2">
         <v>4201.71</v>
       </c>
-      <c r="E74" s="3">
+      <c r="G74" s="3">
         <v>37.907025271538998</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -1786,16 +2253,22 @@
         <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="2">
+      <c r="F75" s="2">
         <v>33014.629999999997</v>
       </c>
-      <c r="E75" s="3">
+      <c r="G75" s="3">
         <v>4.4473632131626033</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
@@ -1803,16 +2276,22 @@
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="2">
+      <c r="F76" s="2">
         <v>6157.92</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6.0794013202294988</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
@@ -1820,16 +2299,22 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="2">
+      <c r="F77" s="2">
         <v>47314.239999999903</v>
       </c>
-      <c r="E77" s="3">
+      <c r="G77" s="3">
         <v>0.27829000926891478</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -1837,16 +2322,22 @@
         <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="2">
+      <c r="F78" s="2">
         <v>24986.5</v>
       </c>
-      <c r="E78" s="3">
+      <c r="G78" s="3">
         <v>1012.6745562354331</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>39</v>
       </c>
@@ -1854,16 +2345,22 @@
         <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="2">
+      <c r="F79" s="2">
         <v>9751.5899999999692</v>
       </c>
-      <c r="E79" s="3">
+      <c r="G79" s="3">
         <v>0.35730755412137921</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
@@ -1871,16 +2368,22 @@
         <v>22</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="2">
+      <c r="F80" s="2">
         <v>12105.84</v>
       </c>
-      <c r="E80" s="3">
+      <c r="G80" s="3">
         <v>8.8445809157874571</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -1888,16 +2391,22 @@
         <v>24</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="2">
+      <c r="F81" s="2">
         <v>20516.66</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2.9087895808639805</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>39</v>
       </c>
@@ -1905,16 +2414,22 @@
         <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="2">
+      <c r="F82" s="2">
         <v>19689.34</v>
       </c>
-      <c r="E82" s="3">
+      <c r="G82" s="3">
         <v>7.1040427174504375</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>39</v>
       </c>
@@ -1922,16 +2437,22 @@
         <v>28</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="2">
+      <c r="F83" s="2">
         <v>2814.24</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17.246215235058767</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -1939,16 +2460,22 @@
         <v>30</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="2">
+      <c r="F84" s="2">
         <v>10420.81</v>
       </c>
-      <c r="E84" s="3">
+      <c r="G84" s="3">
         <v>0.33193440738501157</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>39</v>
       </c>
@@ -1956,16 +2483,22 @@
         <v>32</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="2">
+      <c r="F85" s="2">
         <v>30634.11</v>
       </c>
-      <c r="E85" s="3">
+      <c r="G85" s="3">
         <v>3.3212965191433308</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
@@ -1973,16 +2506,22 @@
         <v>34</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="2">
+      <c r="F86" s="2">
         <v>6366.36</v>
       </c>
-      <c r="E86" s="3">
+      <c r="G86" s="3">
         <v>4.2884821792597743</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -1990,16 +2529,22 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="2">
+      <c r="F87" s="2">
         <v>5255.6799999999903</v>
       </c>
-      <c r="E87" s="3">
+      <c r="G87" s="3">
         <v>131.10411169864418</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -2007,16 +2552,22 @@
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="2">
+      <c r="F88" s="2">
         <v>33728.469999999899</v>
       </c>
-      <c r="E88" s="3">
+      <c r="G88" s="3">
         <v>313.73408394145764</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -2024,16 +2575,22 @@
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="2">
+      <c r="F89" s="2">
         <v>20902.4399999999</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4917.0270806488797</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -2041,16 +2598,22 @@
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="2">
+      <c r="F90" s="2">
         <v>10220.02</v>
       </c>
-      <c r="E90" s="3">
+      <c r="G90" s="3">
         <v>3.95215663249791</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,16 +2621,22 @@
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="2">
+      <c r="F91" s="2">
         <v>6766.4300000000103</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>2.278696554828072</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -2075,16 +2644,22 @@
         <v>13</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="2">
+      <c r="F92" s="2">
         <v>11257.7300000001</v>
       </c>
-      <c r="E92" s="3">
+      <c r="G92" s="3">
         <v>120.02235005095004</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -2092,16 +2667,22 @@
         <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="2">
+      <c r="F93" s="2">
         <v>3764.15</v>
       </c>
-      <c r="E93" s="3">
+      <c r="G93" s="3">
         <v>10.377454414756764</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -2109,16 +2690,22 @@
         <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="2">
+      <c r="F94" s="2">
         <v>17107.5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>509.16266598282874</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -2126,16 +2713,22 @@
         <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="2">
+      <c r="F95" s="2">
         <v>20221.740000000002</v>
       </c>
-      <c r="E95" s="3">
+      <c r="G95" s="3">
         <v>7.2991432387809674</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -2143,16 +2736,22 @@
         <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="2">
+      <c r="F96" s="2">
         <v>7778.4699999999903</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>89.420452135836044</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -2160,16 +2759,22 @@
         <v>22</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="2">
+      <c r="F97" s="2">
         <v>1406.56</v>
       </c>
-      <c r="E97" s="3">
+      <c r="G97" s="3">
         <v>12.242604092063115</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
@@ -2177,16 +2782,22 @@
         <v>24</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="2">
+      <c r="F98" s="2">
         <v>10914.79</v>
       </c>
-      <c r="E98" s="3">
+      <c r="G98" s="3">
         <v>2.8634836875668874</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -2194,16 +2805,22 @@
         <v>26</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="2">
+      <c r="F99" s="2">
         <v>5954.8299999999899</v>
       </c>
-      <c r="E99" s="3">
+      <c r="G99" s="3">
         <v>13.397787062672542</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -2211,16 +2828,22 @@
         <v>28</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="2">
+      <c r="F100" s="2">
         <v>2887.1</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>36.315442777329046</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -2228,16 +2851,22 @@
         <v>30</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D101" s="2">
+      <c r="F101" s="2">
         <v>1688.56</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>70.077274003085762</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -2245,16 +2874,22 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="2">
+      <c r="F102" s="2">
         <v>23176.9</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8.2664302900426461E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -2262,16 +2897,22 @@
         <v>34</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="2">
+      <c r="F103" s="2">
         <v>5371.65</v>
       </c>
-      <c r="E103" s="3">
+      <c r="G103" s="3">
         <v>54.570602344645444</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>41</v>
       </c>
@@ -2279,16 +2920,22 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="2">
+      <c r="F104" s="2">
         <v>5356.2800000000097</v>
       </c>
-      <c r="E104" s="3">
+      <c r="G104" s="3">
         <v>0.53920226726873521</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
@@ -2296,16 +2943,22 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="2">
+      <c r="F105" s="2">
         <v>19520.68</v>
       </c>
-      <c r="E105" s="3">
+      <c r="G105" s="3">
         <v>1.2128013356525658</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -2313,16 +2966,22 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="2">
+      <c r="F106" s="2">
         <v>8055.7</v>
       </c>
-      <c r="E106" s="3">
+      <c r="G106" s="3">
         <v>125.8970316447835</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -2330,16 +2989,22 @@
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="2">
+      <c r="F107" s="2">
         <v>6686.58</v>
       </c>
-      <c r="E107" s="3">
+      <c r="G107" s="3">
         <v>8.6251663194150634</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -2347,16 +3012,22 @@
         <v>11</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="2">
+      <c r="F108" s="2">
         <v>1503.09</v>
       </c>
-      <c r="E108" s="3">
+      <c r="G108" s="3">
         <v>32.103884750494501</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>41</v>
       </c>
@@ -2364,16 +3035,22 @@
         <v>13</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="2">
+      <c r="F109" s="2">
         <v>7268.00000000001</v>
       </c>
-      <c r="E109" s="3">
+      <c r="G109" s="3">
         <v>3.470637010127013</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
@@ -2381,16 +3058,22 @@
         <v>13</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="2">
+      <c r="F110" s="2">
         <v>826.54</v>
       </c>
-      <c r="E110" s="3">
+      <c r="G110" s="3">
         <v>1.1967699358476411</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>41</v>
       </c>
@@ -2398,16 +3081,22 @@
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="2">
+      <c r="F111" s="2">
         <v>3962.44</v>
       </c>
-      <c r="E111" s="3">
+      <c r="G111" s="3">
         <v>3.3718435438764889</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -2415,16 +3104,22 @@
         <v>18</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="2">
+      <c r="F112" s="2">
         <v>22558.240000000002</v>
       </c>
-      <c r="E112" s="3">
+      <c r="G112" s="3">
         <v>1.039146740385064E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
@@ -2432,16 +3127,22 @@
         <v>20</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="2">
+      <c r="F113" s="2">
         <v>4516.63</v>
       </c>
-      <c r="E113" s="3">
+      <c r="G113" s="3">
         <v>25.607622585026888</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
@@ -2449,16 +3150,22 @@
         <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="2">
+      <c r="F114" s="2">
         <v>179.14</v>
       </c>
-      <c r="E114" s="3">
+      <c r="G114" s="3">
         <v>0.73801860437061539</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>41</v>
       </c>
@@ -2466,16 +3173,22 @@
         <v>24</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="2">
+      <c r="F115" s="2">
         <v>12828.6</v>
       </c>
-      <c r="E115" s="3">
+      <c r="G115" s="3">
         <v>409.58394489954821</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -2483,16 +3196,22 @@
         <v>26</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D116" s="2">
+      <c r="F116" s="2">
         <v>4230.13</v>
       </c>
-      <c r="E116" s="3">
+      <c r="G116" s="3">
         <v>10.45147575180839</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,16 +3219,22 @@
         <v>28</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D117" s="2">
+      <c r="F117" s="2">
         <v>2138.9499999999998</v>
       </c>
-      <c r="E117" s="3">
+      <c r="G117" s="3">
         <v>1.3541579990039994E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>41</v>
       </c>
@@ -2517,16 +3242,22 @@
         <v>32</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D118" s="2">
+      <c r="F118" s="2">
         <v>15399.59</v>
       </c>
-      <c r="E118" s="3">
+      <c r="G118" s="3">
         <v>680.12212915077123</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>41</v>
       </c>
@@ -2534,16 +3265,22 @@
         <v>34</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D119" s="2">
+      <c r="F119" s="2">
         <v>2194.0500000000002</v>
       </c>
-      <c r="E119" s="3">
+      <c r="G119" s="3">
         <v>5.0794274011056055</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>42</v>
       </c>
@@ -2551,16 +3288,22 @@
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="2">
+      <c r="F120" s="2">
         <v>15161.62</v>
       </c>
-      <c r="E120" s="3">
+      <c r="G120" s="3">
         <v>4481.5625786763812</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>42</v>
       </c>
@@ -2568,16 +3311,22 @@
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="2">
+      <c r="F121" s="2">
         <v>88608.039999999906</v>
       </c>
-      <c r="E121" s="3">
+      <c r="G121" s="3">
         <v>971.97242085526102</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>42</v>
       </c>
@@ -2585,16 +3334,22 @@
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="2">
+      <c r="F122" s="2">
         <v>31637.470000000099</v>
       </c>
-      <c r="E122" s="3">
+      <c r="G122" s="3">
         <v>95.73703008337624</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>42</v>
       </c>
@@ -2602,16 +3357,22 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="2">
+      <c r="F123" s="2">
         <v>8882.4999999999909</v>
       </c>
-      <c r="E123" s="3">
+      <c r="G123" s="3">
         <v>68.804833140358909</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>42</v>
       </c>
@@ -2619,16 +3380,22 @@
         <v>11</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="2">
+      <c r="F124" s="2">
         <v>12771.53</v>
       </c>
-      <c r="E124" s="3">
+      <c r="G124" s="3">
         <v>0.7071579983453995</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>42</v>
       </c>
@@ -2636,16 +3403,22 @@
         <v>13</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="2">
+      <c r="F125" s="2">
         <v>25259.7600000001</v>
       </c>
-      <c r="E125" s="3">
+      <c r="G125" s="3">
         <v>2.411637026534704</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>42</v>
       </c>
@@ -2653,16 +3426,22 @@
         <v>13</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="2">
+      <c r="F126" s="2">
         <v>5376.70999999999</v>
       </c>
-      <c r="E126" s="3">
+      <c r="G126" s="3">
         <v>21.471770302947132</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>42</v>
       </c>
@@ -2670,16 +3449,22 @@
         <v>16</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="2">
+      <c r="F127" s="2">
         <v>21722.55</v>
       </c>
-      <c r="E127" s="3">
+      <c r="G127" s="3">
         <v>442.89146725247838</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>42</v>
       </c>
@@ -2687,16 +3472,22 @@
         <v>18</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="2">
+      <c r="F128" s="2">
         <v>33455.89</v>
       </c>
-      <c r="E128" s="3">
+      <c r="G128" s="3">
         <v>240.74501444876014</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,16 +3495,22 @@
         <v>20</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="2">
+      <c r="F129" s="2">
         <v>24384.200000000099</v>
       </c>
-      <c r="E129" s="3">
+      <c r="G129" s="3">
         <v>159.17545248977532</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>42</v>
       </c>
@@ -2721,16 +3518,22 @@
         <v>22</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="2">
+      <c r="F130" s="2">
         <v>1420.59</v>
       </c>
-      <c r="E130" s="3">
+      <c r="G130" s="3">
         <v>0.3544012850997596</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -2738,16 +3541,22 @@
         <v>24</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="2">
+      <c r="F131" s="2">
         <v>31826.049999999901</v>
       </c>
-      <c r="E131" s="3">
+      <c r="G131" s="3">
         <v>118.24504698291379</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>42</v>
       </c>
@@ -2755,16 +3564,22 @@
         <v>26</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D132" s="2">
+      <c r="F132" s="2">
         <v>15865.91</v>
       </c>
-      <c r="E132" s="3">
+      <c r="G132" s="3">
         <v>561.95104509850944</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>42</v>
       </c>
@@ -2772,16 +3587,22 @@
         <v>28</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D133" s="2">
+      <c r="F133" s="2">
         <v>2797.5699999999902</v>
       </c>
-      <c r="E133" s="3">
+      <c r="G133" s="3">
         <v>3.9735473786081608</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>42</v>
       </c>
@@ -2789,16 +3610,22 @@
         <v>30</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="2">
+      <c r="F134" s="2">
         <v>5154.46000000001</v>
       </c>
-      <c r="E134" s="3">
+      <c r="G134" s="3">
         <v>471.95189794773711</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>42</v>
       </c>
@@ -2806,16 +3633,22 @@
         <v>32</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D135" s="2">
+      <c r="F135" s="2">
         <v>50552.950000000099</v>
       </c>
-      <c r="E135" s="3">
+      <c r="G135" s="3">
         <v>600.99583480765841</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>42</v>
       </c>
@@ -2823,16 +3656,22 @@
         <v>34</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D136" s="2">
+      <c r="F136" s="2">
         <v>6570.3499999999704</v>
       </c>
-      <c r="E136" s="3">
+      <c r="G136" s="3">
         <v>112.40450016371267</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>43</v>
       </c>
@@ -2840,16 +3679,22 @@
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="2">
+      <c r="F137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="3">
+      <c r="G137" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>43</v>
       </c>
@@ -2857,12 +3702,18 @@
         <v>18</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="2">
+      <c r="F138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="3">
+      <c r="G138" s="3">
         <v>0</v>
       </c>
     </row>
